--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121021a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121021a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0.8587980411850094</v>
+      </c>
+      <c r="C5">
+        <v>0.891576150167402</v>
+      </c>
+      <c r="D5">
+        <v>0.8970706186869837</v>
+      </c>
+      <c r="E5">
+        <v>1.087885572715446</v>
+      </c>
+      <c r="F5">
+        <v>1.236528651394527</v>
+      </c>
+      <c r="G5">
+        <v>2.107266626755658</v>
+      </c>
+      <c r="H5">
+        <v>1.322686315619079</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.8587980411850094</v>
+        <v>3.25391337464394</v>
       </c>
       <c r="C6">
-        <v>0.891576150167402</v>
+        <v>3.208105724805562</v>
       </c>
       <c r="D6">
-        <v>0.8970706186869837</v>
+        <v>3.367786289168296</v>
       </c>
       <c r="E6">
-        <v>1.087885572715446</v>
+        <v>4.170488497400846</v>
       </c>
       <c r="F6">
-        <v>1.236528651394527</v>
+        <v>3.723584414504003</v>
       </c>
       <c r="G6">
-        <v>2.107266626755658</v>
+        <v>6.460993726707648</v>
       </c>
       <c r="H6">
-        <v>1.322686315619079</v>
+        <v>3.823049076506237</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.25391337464394</v>
+        <v>3.476844813349684</v>
       </c>
       <c r="C7">
-        <v>3.208105724805562</v>
+        <v>3.539967467924956</v>
       </c>
       <c r="D7">
-        <v>3.367786289168296</v>
+        <v>3.514237853458653</v>
       </c>
       <c r="E7">
-        <v>4.170488497400846</v>
+        <v>3.492650478265156</v>
       </c>
       <c r="F7">
-        <v>3.723584414504003</v>
+        <v>3.799080872373382</v>
       </c>
       <c r="G7">
-        <v>6.460993726707648</v>
+        <v>6.272179608686657</v>
       </c>
       <c r="H7">
-        <v>3.823049076506237</v>
+        <v>3.833621214152775</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>3.315533400930749</v>
+      </c>
+      <c r="C8">
+        <v>4.066222730551107</v>
+      </c>
+      <c r="D8">
+        <v>3.460686205685528</v>
+      </c>
+      <c r="E8">
+        <v>4.734966341435021</v>
+      </c>
+      <c r="F8">
+        <v>3.673034632728099</v>
+      </c>
+      <c r="G8">
+        <v>8.806889398846353</v>
+      </c>
+      <c r="H8">
+        <v>4.072842100129235</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.476844813349684</v>
+        <v>10.76603758468494</v>
       </c>
       <c r="C9">
-        <v>3.539967467924956</v>
+        <v>11.06901070500634</v>
       </c>
       <c r="D9">
-        <v>3.514237853458653</v>
+        <v>10.67073104353443</v>
       </c>
       <c r="E9">
-        <v>3.492650478265156</v>
+        <v>14.49689659396446</v>
       </c>
       <c r="F9">
-        <v>3.799080872373382</v>
+        <v>10.42994617305908</v>
       </c>
       <c r="G9">
-        <v>6.272179608686657</v>
+        <v>20.62865367213075</v>
       </c>
       <c r="H9">
-        <v>3.833621214152775</v>
+        <v>10.71026944602688</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>3.315533400930749</v>
+        <v>4.418281608947436</v>
       </c>
       <c r="C10">
-        <v>4.066222730551107</v>
+        <v>4.774823161702064</v>
       </c>
       <c r="D10">
-        <v>3.460686205685528</v>
+        <v>4.359980645584146</v>
       </c>
       <c r="E10">
-        <v>4.734966341435021</v>
+        <v>7.251866512735738</v>
       </c>
       <c r="F10">
-        <v>3.673034632728099</v>
+        <v>5.000876783577505</v>
       </c>
       <c r="G10">
-        <v>8.806889398846353</v>
+        <v>25.73719603333494</v>
       </c>
       <c r="H10">
-        <v>4.072842100129235</v>
+        <v>4.806420490176979</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>10.76603758468494</v>
+        <v>4.756212922640313</v>
       </c>
       <c r="C11">
-        <v>11.06901070500634</v>
+        <v>5.325509745814172</v>
       </c>
       <c r="D11">
-        <v>10.67073104353443</v>
+        <v>5.183421899544729</v>
       </c>
       <c r="E11">
-        <v>14.49689659396446</v>
+        <v>8.961987330019374</v>
       </c>
       <c r="F11">
-        <v>10.42994617305908</v>
+        <v>5.485242910712016</v>
       </c>
       <c r="G11">
-        <v>20.62865367213075</v>
+        <v>17.59729101316955</v>
       </c>
       <c r="H11">
-        <v>10.71026944602688</v>
+        <v>5.796712616983622</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>4.418281608947436</v>
+        <v>8.708223025440608</v>
       </c>
       <c r="C12">
-        <v>4.774823161702064</v>
+        <v>8.648892917876307</v>
       </c>
       <c r="D12">
-        <v>4.359980645584146</v>
+        <v>8.935680619516937</v>
       </c>
       <c r="E12">
-        <v>7.251866512735738</v>
+        <v>8.330555618831855</v>
       </c>
       <c r="F12">
-        <v>5.000876783577505</v>
+        <v>9.022627375983012</v>
       </c>
       <c r="G12">
-        <v>25.73719603333494</v>
+        <v>12.06557741173178</v>
       </c>
       <c r="H12">
-        <v>4.806420490176979</v>
+        <v>9.064163348455002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>4.756212922640313</v>
+        <v>8.663353080183908</v>
       </c>
       <c r="C13">
-        <v>5.325509745814172</v>
+        <v>9.619958035183179</v>
       </c>
       <c r="D13">
-        <v>5.183421899544729</v>
+        <v>8.248005262957353</v>
       </c>
       <c r="E13">
-        <v>8.961987330019374</v>
+        <v>17.9054132086401</v>
       </c>
       <c r="F13">
-        <v>5.485242910712016</v>
+        <v>6.762009980762627</v>
       </c>
       <c r="G13">
-        <v>17.59729101316955</v>
+        <v>24.21046280373702</v>
       </c>
       <c r="H13">
-        <v>5.796712616983622</v>
+        <v>7.493537321272747</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>8.708223025440608</v>
+        <v>3.401724653742177</v>
       </c>
       <c r="C14">
-        <v>8.648892917876307</v>
+        <v>3.287426112114832</v>
       </c>
       <c r="D14">
-        <v>8.935680619516937</v>
+        <v>3.789953367655787</v>
       </c>
       <c r="E14">
-        <v>8.330555618831855</v>
+        <v>6.308638321606763</v>
       </c>
       <c r="F14">
-        <v>9.022627375983012</v>
+        <v>4.898033723522428</v>
       </c>
       <c r="G14">
-        <v>12.06557741173178</v>
+        <v>13.83587010614151</v>
       </c>
       <c r="H14">
-        <v>9.064163348455002</v>
+        <v>5.065867695811757</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>8.663353080183908</v>
+        <v>1.653280897927568</v>
       </c>
       <c r="C15">
-        <v>9.619958035183179</v>
+        <v>1.70389735416727</v>
       </c>
       <c r="D15">
-        <v>8.248005262957353</v>
+        <v>1.675108115882935</v>
       </c>
       <c r="E15">
-        <v>17.9054132086401</v>
+        <v>2.655816658165791</v>
       </c>
       <c r="F15">
-        <v>6.762009980762627</v>
+        <v>2.036605737637894</v>
       </c>
       <c r="G15">
-        <v>24.21046280373702</v>
+        <v>4.449161186226763</v>
       </c>
       <c r="H15">
-        <v>7.493537321272747</v>
+        <v>2.1414008341255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>3.401724653742177</v>
+        <v>7.394463318254337</v>
       </c>
       <c r="C16">
-        <v>3.287426112114832</v>
+        <v>7.684601121422091</v>
       </c>
       <c r="D16">
-        <v>3.789953367655787</v>
+        <v>7.267828567267048</v>
       </c>
       <c r="E16">
-        <v>6.308638321606763</v>
+        <v>12.95766891997372</v>
       </c>
       <c r="F16">
-        <v>4.898033723522428</v>
+        <v>8.758770102825974</v>
       </c>
       <c r="G16">
-        <v>13.83587010614151</v>
+        <v>16.7482970504253</v>
       </c>
       <c r="H16">
-        <v>5.065867695811757</v>
+        <v>10.22038145894486</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>1.653280897927568</v>
+        <v>5.896780275014431</v>
       </c>
       <c r="C17">
-        <v>1.70389735416727</v>
+        <v>6.007528397394296</v>
       </c>
       <c r="D17">
-        <v>1.675108115882935</v>
+        <v>6.081791979912468</v>
       </c>
       <c r="E17">
-        <v>2.655816658165791</v>
+        <v>9.453224471453266</v>
       </c>
       <c r="F17">
-        <v>2.036605737637894</v>
+        <v>7.51465436712801</v>
       </c>
       <c r="G17">
-        <v>4.449161186226763</v>
+        <v>31.8228074996303</v>
       </c>
       <c r="H17">
-        <v>2.1414008341255</v>
+        <v>6.694548497980144</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>7.394463318254337</v>
+        <v>4.10944186047277</v>
       </c>
       <c r="C18">
-        <v>7.684601121422091</v>
+        <v>4.241612002328409</v>
       </c>
       <c r="D18">
-        <v>7.267828567267048</v>
+        <v>4.191060031579496</v>
       </c>
       <c r="E18">
-        <v>12.95766891997372</v>
+        <v>4.716903870141481</v>
       </c>
       <c r="F18">
-        <v>8.758770102825974</v>
+        <v>4.847335349319752</v>
       </c>
       <c r="G18">
-        <v>16.7482970504253</v>
+        <v>14.0978374864585</v>
       </c>
       <c r="H18">
-        <v>10.22038145894486</v>
+        <v>4.795045790329499</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>5.896780275014431</v>
+        <v>9.232800347021263</v>
       </c>
       <c r="C19">
-        <v>6.007528397394296</v>
+        <v>8.711768661217958</v>
       </c>
       <c r="D19">
-        <v>6.081791979912468</v>
+        <v>9.870092014996668</v>
       </c>
       <c r="E19">
-        <v>9.453224471453266</v>
+        <v>11.56204234420452</v>
       </c>
       <c r="F19">
-        <v>7.51465436712801</v>
+        <v>8.305640431077553</v>
       </c>
       <c r="G19">
-        <v>31.8228074996303</v>
+        <v>12.33987016934834</v>
       </c>
       <c r="H19">
-        <v>6.694548497980144</v>
+        <v>8.755315323909469</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4.10944186047277</v>
+        <v>5.58828201195286</v>
       </c>
       <c r="C20">
-        <v>4.241612002328409</v>
+        <v>5.888240376756257</v>
       </c>
       <c r="D20">
-        <v>4.191060031579496</v>
+        <v>5.544184819289105</v>
       </c>
       <c r="E20">
-        <v>4.716903870141481</v>
+        <v>6.896499373766177</v>
       </c>
       <c r="F20">
-        <v>4.847335349319752</v>
+        <v>6.865564114228651</v>
       </c>
       <c r="G20">
-        <v>14.0978374864585</v>
+        <v>12.04836259437774</v>
       </c>
       <c r="H20">
-        <v>4.795045790329499</v>
+        <v>6.909562135793559</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>9.232800347021263</v>
+        <v>2.843305541804166</v>
       </c>
       <c r="C21">
-        <v>8.711768661217958</v>
+        <v>3.278372708452765</v>
       </c>
       <c r="D21">
-        <v>9.870092014996668</v>
+        <v>2.647514661367444</v>
       </c>
       <c r="E21">
-        <v>11.56204234420452</v>
+        <v>3.523322279187858</v>
       </c>
       <c r="F21">
-        <v>8.305640431077553</v>
+        <v>4.045369352373674</v>
       </c>
       <c r="G21">
-        <v>12.33987016934834</v>
+        <v>10.42082215639311</v>
       </c>
       <c r="H21">
-        <v>8.755315323909469</v>
+        <v>4.059597145290524</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>5.58828201195286</v>
+        <v>8.573679076448991</v>
       </c>
       <c r="C22">
-        <v>5.888240376756257</v>
+        <v>8.369221577078443</v>
       </c>
       <c r="D22">
-        <v>5.544184819289105</v>
+        <v>8.896911676739673</v>
       </c>
       <c r="E22">
-        <v>6.896499373766177</v>
+        <v>17.72063987643193</v>
       </c>
       <c r="F22">
-        <v>6.865564114228651</v>
+        <v>9.473575414882262</v>
       </c>
       <c r="G22">
-        <v>12.04836259437774</v>
+        <v>20.97202805163978</v>
       </c>
       <c r="H22">
-        <v>6.909562135793559</v>
+        <v>10.38774200215877</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>2.843305541804166</v>
+        <v>5.924223609358608</v>
       </c>
       <c r="C23">
-        <v>3.278372708452765</v>
+        <v>6.539279900086489</v>
       </c>
       <c r="D23">
-        <v>2.647514661367444</v>
+        <v>5.849817669668029</v>
       </c>
       <c r="E23">
-        <v>3.523322279187858</v>
+        <v>8.053623842991975</v>
       </c>
       <c r="F23">
-        <v>4.045369352373674</v>
+        <v>7.007288516007485</v>
       </c>
       <c r="G23">
-        <v>10.42082215639311</v>
+        <v>18.72608251823245</v>
       </c>
       <c r="H23">
-        <v>4.059597145290524</v>
+        <v>6.97676735608239</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>8.573679076448991</v>
+        <v>2.740742423175238</v>
       </c>
       <c r="C24">
-        <v>8.369221577078443</v>
+        <v>2.784744104600273</v>
       </c>
       <c r="D24">
-        <v>8.896911676739673</v>
+        <v>2.870662009988054</v>
       </c>
       <c r="E24">
-        <v>17.72063987643193</v>
+        <v>5.963876229111223</v>
       </c>
       <c r="F24">
-        <v>9.473575414882262</v>
+        <v>3.610283934931857</v>
       </c>
       <c r="G24">
-        <v>20.97202805163978</v>
+        <v>5.899886452971694</v>
       </c>
       <c r="H24">
-        <v>10.38774200215877</v>
+        <v>3.714714066224043</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>5.924223609358608</v>
+        <v>0.9531187530088721</v>
       </c>
       <c r="C25">
-        <v>6.539279900086489</v>
+        <v>1.009093433702807</v>
       </c>
       <c r="D25">
-        <v>5.849817669668029</v>
+        <v>1.042229673345515</v>
       </c>
       <c r="E25">
-        <v>8.053623842991975</v>
+        <v>1.472035372771579</v>
       </c>
       <c r="F25">
-        <v>7.007288516007485</v>
+        <v>1.49210702318353</v>
       </c>
       <c r="G25">
-        <v>18.72608251823245</v>
+        <v>3.029078996907012</v>
       </c>
       <c r="H25">
-        <v>6.97676735608239</v>
+        <v>1.643598971860037</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>2.740742423175238</v>
+        <v>1.894990983554854</v>
       </c>
       <c r="C26">
-        <v>2.784744104600273</v>
+        <v>2.003310264746617</v>
       </c>
       <c r="D26">
-        <v>2.870662009988054</v>
+        <v>2.013068495149036</v>
       </c>
       <c r="E26">
-        <v>5.963876229111223</v>
+        <v>3.20383856773701</v>
       </c>
       <c r="F26">
-        <v>3.610283934931857</v>
+        <v>2.167821442180994</v>
       </c>
       <c r="G26">
-        <v>5.899886452971694</v>
+        <v>5.60067134535625</v>
       </c>
       <c r="H26">
-        <v>3.714714066224043</v>
+        <v>2.250345324204977</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.9531187530088721</v>
+        <v>4.038166149009035</v>
       </c>
       <c r="C27">
-        <v>1.009093433702807</v>
+        <v>3.851891977863552</v>
       </c>
       <c r="D27">
-        <v>1.042229673345515</v>
+        <v>4.983357256230466</v>
       </c>
       <c r="E27">
-        <v>1.472035372771579</v>
+        <v>8.804189326635051</v>
       </c>
       <c r="F27">
-        <v>1.49210702318353</v>
+        <v>5.227630751158408</v>
       </c>
       <c r="G27">
-        <v>3.029078996907012</v>
+        <v>12.21895579229582</v>
       </c>
       <c r="H27">
-        <v>1.643598971860037</v>
+        <v>5.724061329522098</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>1.894990983554854</v>
+        <v>2.335418274795894</v>
       </c>
       <c r="C28">
-        <v>2.003310264746617</v>
+        <v>2.382724801554635</v>
       </c>
       <c r="D28">
-        <v>2.013068495149036</v>
+        <v>2.514937583104198</v>
       </c>
       <c r="E28">
-        <v>3.20383856773701</v>
+        <v>3.732440796891964</v>
       </c>
       <c r="F28">
-        <v>2.167821442180994</v>
+        <v>3.156952793980208</v>
       </c>
       <c r="G28">
-        <v>5.60067134535625</v>
+        <v>5.640401303600758</v>
       </c>
       <c r="H28">
-        <v>2.250345324204977</v>
+        <v>3.397454989417274</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>4.038166149009035</v>
+        <v>1.304069382914054</v>
       </c>
       <c r="C29">
-        <v>3.851891977863552</v>
+        <v>1.406155813004492</v>
       </c>
       <c r="D29">
-        <v>4.983357256230466</v>
+        <v>1.447354299460135</v>
       </c>
       <c r="E29">
-        <v>8.804189326635051</v>
+        <v>1.886195956057096</v>
       </c>
       <c r="F29">
-        <v>5.227630751158408</v>
+        <v>2.738415945606821</v>
       </c>
       <c r="G29">
-        <v>12.21895579229582</v>
+        <v>4.956486314829799</v>
       </c>
       <c r="H29">
-        <v>5.724061329522098</v>
+        <v>3.105729685373373</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>2.335418274795894</v>
+        <v>1.385022388995266</v>
       </c>
       <c r="C30">
-        <v>2.382724801554635</v>
+        <v>1.505509081145612</v>
       </c>
       <c r="D30">
-        <v>2.514937583104198</v>
+        <v>1.446850189662667</v>
       </c>
       <c r="E30">
-        <v>3.732440796891964</v>
+        <v>1.754023811499629</v>
       </c>
       <c r="F30">
-        <v>3.156952793980208</v>
+        <v>3.221768414681316</v>
       </c>
       <c r="G30">
-        <v>5.640401303600758</v>
+        <v>5.087925844676839</v>
       </c>
       <c r="H30">
-        <v>3.397454989417274</v>
+        <v>3.601614726687955</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>1.304069382914054</v>
+        <v>2.17783554277198</v>
       </c>
       <c r="C31">
-        <v>1.406155813004492</v>
+        <v>2.327127538423158</v>
       </c>
       <c r="D31">
-        <v>1.447354299460135</v>
+        <v>2.462165665182943</v>
       </c>
       <c r="E31">
-        <v>1.886195956057096</v>
+        <v>2.656852338085135</v>
       </c>
       <c r="F31">
-        <v>2.738415945606821</v>
+        <v>4.90626690032197</v>
       </c>
       <c r="G31">
-        <v>4.956486314829799</v>
+        <v>8.933270579978922</v>
       </c>
       <c r="H31">
-        <v>3.105729685373373</v>
+        <v>5.306863704715269</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>1.385022388995266</v>
+        <v>3.733299083458498</v>
       </c>
       <c r="C32">
-        <v>1.505509081145612</v>
+        <v>3.693364198381585</v>
       </c>
       <c r="D32">
-        <v>1.446850189662667</v>
+        <v>3.961758406306001</v>
       </c>
       <c r="E32">
-        <v>1.754023811499629</v>
+        <v>4.878412984967039</v>
       </c>
       <c r="F32">
-        <v>3.221768414681316</v>
+        <v>7.816015427384113</v>
       </c>
       <c r="G32">
-        <v>5.087925844676839</v>
+        <v>13.16872124476143</v>
       </c>
       <c r="H32">
-        <v>3.601614726687955</v>
+        <v>9.06162130458714</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>2.17783554277198</v>
+        <v>1.693546907802575</v>
       </c>
       <c r="C33">
-        <v>2.327127538423158</v>
+        <v>2.143334308868634</v>
       </c>
       <c r="D33">
-        <v>2.462165665182943</v>
+        <v>1.541307339217039</v>
       </c>
       <c r="E33">
-        <v>2.656852338085135</v>
+        <v>1.838887141112</v>
       </c>
       <c r="F33">
-        <v>4.90626690032197</v>
+        <v>4.9997070252886</v>
       </c>
       <c r="G33">
-        <v>8.933270579978922</v>
+        <v>7.009568795246629</v>
       </c>
       <c r="H33">
-        <v>5.306863704715269</v>
+        <v>5.623733054616518</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>3.733299083458498</v>
+        <v>1.405888871601273</v>
       </c>
       <c r="C34">
-        <v>3.693364198381585</v>
+        <v>1.625597007641775</v>
       </c>
       <c r="D34">
-        <v>3.961758406306001</v>
+        <v>1.574432473849135</v>
       </c>
       <c r="E34">
-        <v>4.878412984967039</v>
+        <v>2.594991830296206</v>
       </c>
       <c r="F34">
-        <v>7.816015427384113</v>
+        <v>2.349123536634424</v>
       </c>
       <c r="G34">
-        <v>13.16872124476143</v>
+        <v>4.917023236547275</v>
       </c>
       <c r="H34">
-        <v>9.06162130458714</v>
+        <v>2.451165214796853</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>1.693546907802575</v>
+        <v>3.061358952849435</v>
       </c>
       <c r="C35">
-        <v>2.143334308868634</v>
+        <v>3.688496814466627</v>
       </c>
       <c r="D35">
-        <v>1.541307339217039</v>
+        <v>3.113295287683079</v>
       </c>
       <c r="E35">
-        <v>1.838887141112</v>
+        <v>4.15202663840212</v>
       </c>
       <c r="F35">
-        <v>4.9997070252886</v>
+        <v>5.298865866465358</v>
       </c>
       <c r="G35">
-        <v>7.009568795246629</v>
+        <v>10.73614003314723</v>
       </c>
       <c r="H35">
-        <v>5.623733054616518</v>
+        <v>5.842584303283794</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>1.405888871601273</v>
+        <v>2.862124415579702</v>
       </c>
       <c r="C36">
-        <v>1.625597007641775</v>
+        <v>3.880823947995638</v>
       </c>
       <c r="D36">
-        <v>1.574432473849135</v>
+        <v>2.593966100580884</v>
       </c>
       <c r="E36">
-        <v>2.594991830296206</v>
+        <v>8.26198330544913</v>
       </c>
       <c r="F36">
-        <v>2.349123536634424</v>
+        <v>5.995072884640009</v>
       </c>
       <c r="G36">
-        <v>4.917023236547275</v>
+        <v>9.593045431716474</v>
       </c>
       <c r="H36">
-        <v>2.451165214796853</v>
+        <v>6.307604532982513</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>3.061358952849435</v>
+        <v>2.190081720279117</v>
       </c>
       <c r="C37">
-        <v>3.688496814466627</v>
+        <v>2.324882247299495</v>
       </c>
       <c r="D37">
-        <v>3.113295287683079</v>
+        <v>2.747284271774886</v>
       </c>
       <c r="E37">
-        <v>4.15202663840212</v>
+        <v>3.785698292318595</v>
       </c>
       <c r="F37">
-        <v>5.298865866465358</v>
+        <v>3.320511453848968</v>
       </c>
       <c r="G37">
-        <v>10.73614003314723</v>
+        <v>8.231513804545303</v>
       </c>
       <c r="H37">
-        <v>5.842584303283794</v>
+        <v>3.443123915437826</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>2.862124415579702</v>
+        <v>3.767948480175316</v>
       </c>
       <c r="C38">
-        <v>3.880823947995638</v>
+        <v>3.903062668213608</v>
       </c>
       <c r="D38">
-        <v>2.593966100580884</v>
+        <v>4.000778682071914</v>
       </c>
       <c r="E38">
-        <v>8.26198330544913</v>
+        <v>5.024768398545165</v>
       </c>
       <c r="F38">
-        <v>5.995072884640009</v>
+        <v>4.343937480142502</v>
       </c>
       <c r="G38">
-        <v>9.593045431716474</v>
+        <v>9.378804756806005</v>
       </c>
       <c r="H38">
-        <v>6.307604532982513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>2.190081720279117</v>
-      </c>
-      <c r="C39">
-        <v>2.324882247299495</v>
-      </c>
-      <c r="D39">
-        <v>2.747284271774886</v>
-      </c>
-      <c r="E39">
-        <v>3.785698292318595</v>
-      </c>
-      <c r="F39">
-        <v>3.320511453848968</v>
-      </c>
-      <c r="G39">
-        <v>8.231513804545303</v>
-      </c>
-      <c r="H39">
-        <v>3.443123915437826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>3.767948480175316</v>
-      </c>
-      <c r="C40">
-        <v>3.903062668213608</v>
-      </c>
-      <c r="D40">
-        <v>4.000778682071914</v>
-      </c>
-      <c r="E40">
-        <v>5.024768398545165</v>
-      </c>
-      <c r="F40">
-        <v>4.343937480142502</v>
-      </c>
-      <c r="G40">
-        <v>9.378804756806005</v>
-      </c>
-      <c r="H40">
         <v>4.451807146905777</v>
       </c>
     </row>
